--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gkiotsalitisk\Desktop\Files\Directories\PAPERS Utwente\Submitted\2021_Amalia\Instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA548A2D-72FD-4242-842A-4AC0803E55C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A01725-FB48-4CC9-BE4C-CDE41A7499E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="288" yWindow="732" windowWidth="22752" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A instances" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,13 +692,13 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="6">
-        <v>1907.94</v>
+        <v>1823.83</v>
       </c>
       <c r="E9" s="6">
         <v>0</v>
       </c>
       <c r="F9" s="6">
-        <v>215.77</v>
+        <v>10917.72</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
